--- a/新規 Microsoft Excel Worksheet.xlsx
+++ b/新規 Microsoft Excel Worksheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>mail</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +71,39 @@
   </si>
   <si>
     <t>enwy.io</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>511e6800-0a53-4f7b-b675-a78e282a888b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>...002</t>
+  </si>
+  <si>
+    <t>...003</t>
+  </si>
+  <si>
+    <t>1GAEPvDzX6KJqMHDEaAppdJd9ymbySL48b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>...004</t>
+  </si>
+  <si>
+    <t>1AhRxcXBRqYzkZ2e3bGmbP57ThXhsJYysZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d1b6cbbd-ad81-4e53-8520-180e8a1e159b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18jJX5tUV2vucKvALThp8dPsf4C3FoNKHy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b9587f29-6f58-40a0-a88b-ed13f2b56458</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -448,7 +481,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -476,7 +509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="27.95" customHeight="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -510,9 +543,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1"/>
-    <row r="5" spans="1:5" s="5" customFormat="1"/>
-    <row r="6" spans="1:5" s="5" customFormat="1"/>
+    <row r="4" spans="1:5" s="5" customFormat="1">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" s="5" customFormat="1"/>
     <row r="8" spans="1:5" s="5" customFormat="1"/>
     <row r="9" spans="1:5" s="5" customFormat="1"/>

--- a/新規 Microsoft Excel Worksheet.xlsx
+++ b/新規 Microsoft Excel Worksheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>mail</t>
     <phoneticPr fontId="1"/>
@@ -105,23 +105,68 @@
   <si>
     <t>b9587f29-6f58-40a0-a88b-ed13f2b56458</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>...005</t>
+  </si>
+  <si>
+    <t>...006</t>
+  </si>
+  <si>
+    <t>...007</t>
+  </si>
+  <si>
+    <t>...008</t>
+  </si>
+  <si>
+    <t>...009</t>
+  </si>
+  <si>
+    <t>acc335da-f83c-4eee-9090-8744be5cc1cd</t>
+  </si>
+  <si>
+    <t>1GvuqvjCzk6BQDda16qZhPweamR6amvhxZ</t>
+  </si>
+  <si>
+    <t>264643db-dfc9-4f88-bad0-288f0192b36a</t>
+  </si>
+  <si>
+    <t>1PBVbbU6L8EmqxdTmZbLPzwsNWvUERJyiJ</t>
+  </si>
+  <si>
+    <t>a424cae0-e55a-49b0-bb75-69becc63e33c</t>
+  </si>
+  <si>
+    <t>1JdKb6ubLThHwSafimWWvMRB7XGP4X6bKQ</t>
+  </si>
+  <si>
+    <t>549e7adf-bad5-48df-bd70-3d4f69e6cb87</t>
+  </si>
+  <si>
+    <t>12gF92dukVfhvNMwkDxAh9YSDE2fGNWo5v</t>
+  </si>
+  <si>
+    <t>65d541a8-b5b2-4de8-9485-f06e1a0def2b</t>
+  </si>
+  <si>
+    <t>1ALzG8ZuYQiyUwhykKpjRB1i4G8rYbo3W9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -130,26 +175,26 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -202,8 +247,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -481,18 +554,18 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,11 +658,61 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1"/>
-    <row r="8" spans="1:5" s="5" customFormat="1"/>
-    <row r="9" spans="1:5" s="5" customFormat="1"/>
-    <row r="10" spans="1:5" s="5" customFormat="1"/>
-    <row r="11" spans="1:5" s="5" customFormat="1"/>
+    <row r="7" spans="1:5" s="5" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" s="5" customFormat="1"/>
     <row r="13" spans="1:5" s="5" customFormat="1"/>
     <row r="14" spans="1:5" s="5" customFormat="1"/>
